--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -69,13 +69,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="834">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T00:00:00+02:00</t>
+    <t>2025-07-10T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1833,6 +1833,24 @@
     <t>T000154 - infraclaviculær lymfeknude</t>
   </si>
   <si>
+    <t>T000165</t>
+  </si>
+  <si>
+    <t>Lymfeknude i mediastinum</t>
+  </si>
+  <si>
+    <t>T000165 - Lymfeknude i mediastinum</t>
+  </si>
+  <si>
+    <t>T000166</t>
+  </si>
+  <si>
+    <t>Lymfeknude i abdomen</t>
+  </si>
+  <si>
+    <t>T000166 - Lymfeknude i abdomen</t>
+  </si>
+  <si>
     <t>T000174</t>
   </si>
   <si>
@@ -2076,6 +2094,15 @@
     <t>T000654 - Ganetonsil</t>
   </si>
   <si>
+    <t>T000653</t>
+  </si>
+  <si>
+    <t>Tonsil og adenoid</t>
+  </si>
+  <si>
+    <t>T000653 - Tonsil og adenoid</t>
+  </si>
+  <si>
     <t>T000657</t>
   </si>
   <si>
@@ -2130,6 +2157,15 @@
     <t>T000703 - duodenum</t>
   </si>
   <si>
+    <t>T000706</t>
+  </si>
+  <si>
+    <t>Tarm</t>
+  </si>
+  <si>
+    <t>T000706 - Tarm</t>
+  </si>
+  <si>
     <t>T000725</t>
   </si>
   <si>
@@ -2178,7 +2214,7 @@
     <t>T000834</t>
   </si>
   <si>
-    <t>prostata</t>
+    <t>Prostata</t>
   </si>
   <si>
     <t>T000834 - prostata</t>
@@ -2229,6 +2265,15 @@
     <t>T000898 - uterus</t>
   </si>
   <si>
+    <t>T000909</t>
+  </si>
+  <si>
+    <t>Genitalia interna</t>
+  </si>
+  <si>
+    <t>T000909 - Genitalia interna</t>
+  </si>
+  <si>
     <t>T000948</t>
   </si>
   <si>
@@ -2290,6 +2335,15 @@
   </si>
   <si>
     <t>T001182 - Orbita</t>
+  </si>
+  <si>
+    <t>T001184</t>
+  </si>
+  <si>
+    <t>Hals</t>
+  </si>
+  <si>
+    <t>T001184 - Hals</t>
   </si>
   <si>
     <t>T001210</t>
@@ -2775,7 +2829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D277"/>
+  <dimension ref="A1:D283"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6516,7 +6570,7 @@
         <v>793</v>
       </c>
       <c r="D267" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="268">
@@ -6524,13 +6578,13 @@
         <v>40</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D268" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="269">
@@ -6538,41 +6592,41 @@
         <v>40</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D269" t="s" s="2">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D270" t="s" s="2">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D271" t="s" s="2">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="272">
@@ -6580,41 +6634,41 @@
         <v>40</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D272" t="s" s="2">
-        <v>803</v>
+        <v>809</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D273" t="s" s="2">
-        <v>805</v>
+        <v>811</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="D274" t="s" s="2">
-        <v>807</v>
+        <v>813</v>
       </c>
     </row>
     <row r="275">
@@ -6622,41 +6676,125 @@
         <v>40</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="D275" t="s" s="2">
-        <v>809</v>
+        <v>815</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="D276" t="s" s="2">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="D277" t="s" s="2">
-        <v>815</v>
+        <v>819</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B278" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="C278" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="D278" t="s" s="2">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B279" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="C279" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="D279" t="s" s="2">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B280" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>825</v>
+      </c>
+      <c r="D280" t="s" s="2">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B281" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="C281" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="D281" t="s" s="2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="C282" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="D282" t="s" s="2">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B283" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="C283" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="D283" t="s" s="2">
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-SKS.xlsx
+++ b/fhir/CodeSystem-SKS.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
